--- a/Assets/8_Data/2_LevelData.xlsx
+++ b/Assets/8_Data/2_LevelData.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E66C0-0FAE-4E58-BF90-7F03B636CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Level_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,30 +111,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Bật prefab nhà đặt sẵn trong ground</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -139,18 +127,12 @@
     <t>HasRegen</t>
   </si>
   <si>
-    <t>EnableHouseChilldIndex</t>
-  </si>
-  <si>
     <t>EnemyRespawnTime</t>
   </si>
   <si>
     <t>OneTimeDrop_ItemName</t>
   </si>
   <si>
-    <t>#_1_Enemy_Mage</t>
-  </si>
-  <si>
     <t>Enemy1_Level</t>
   </si>
   <si>
@@ -164,12 +146,18 @@
   </si>
   <si>
     <t>#_1_Enemy_Skeleton</t>
+  </si>
+  <si>
+    <t>#_1_Enemy_Bat Lord</t>
+  </si>
+  <si>
+    <t>ItemConsumable_EggFire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,72 +481,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
         <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/8_Data/2_LevelData.xlsx
+++ b/Assets/8_Data/2_LevelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E66C0-0FAE-4E58-BF90-7F03B636CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Level_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_Level_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,92 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Có bật hồ hồi máu, không cần xếp hồ vào map
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nhập tên prefab enemy tại
+\Resources\Enemy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nhập tên item tại resources/item folder
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,14 +201,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>GroundName</t>
   </si>
   <si>
-    <t>Ground_#_19</t>
-  </si>
-  <si>
     <t>HasRegen</t>
   </si>
   <si>
@@ -145,19 +227,91 @@
     <t>Enemy2_Level</t>
   </si>
   <si>
-    <t>#_1_Enemy_Skeleton</t>
-  </si>
-  <si>
-    <t>#_1_Enemy_Bat Lord</t>
-  </si>
-  <si>
     <t>ItemConsumable_EggFire</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green0</t>
+  </si>
+  <si>
+    <t>#_104_Creature_WolfPup_Fire</t>
+  </si>
+  <si>
+    <t>#_105_Creature_Sprout_Normal</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green1</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green4</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green6</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green8</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green3</t>
+  </si>
+  <si>
+    <t>#_104_Creature_WolfPup_Ice</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green2</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green5</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green7</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green9</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green10</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green11</t>
+  </si>
+  <si>
+    <t>#_7_Ground_Green12</t>
+  </si>
+  <si>
+    <t>#_105_Creature_Sprout_Fire</t>
+  </si>
+  <si>
+    <t>#_106_Creature_Fungi_Fire</t>
+  </si>
+  <si>
+    <t>#_108_Creature_Wolf_Normal</t>
+  </si>
+  <si>
+    <t>#_113_Creature_Cactus_Fire</t>
+  </si>
+  <si>
+    <t>#_102_Creature_Fledgling_Ice</t>
+  </si>
+  <si>
+    <t>#_108_Creature_Wolf_Ice</t>
+  </si>
+  <si>
+    <t>#_109_Creature_Bee_Normal</t>
+  </si>
+  <si>
+    <t>#_110_Creature_Bumble_Thunder</t>
+  </si>
+  <si>
+    <t>#_111_Creature_Angel_Normal</t>
+  </si>
+  <si>
+    <t>#_103_Creature_MushRoom_Ice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,54 +635,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -537,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +701,272 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/8_Data/2_LevelData.xlsx
+++ b/Assets/8_Data/2_LevelData.xlsx
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>GroundName</t>
   </si>
@@ -254,9 +254,6 @@
     <t>#_7_Ground_Green3</t>
   </si>
   <si>
-    <t>#_104_Creature_WolfPup_Ice</t>
-  </si>
-  <si>
     <t>#_7_Ground_Green2</t>
   </si>
   <si>
@@ -278,34 +275,13 @@
     <t>#_7_Ground_Green12</t>
   </si>
   <si>
-    <t>#_105_Creature_Sprout_Fire</t>
-  </si>
-  <si>
-    <t>#_106_Creature_Fungi_Fire</t>
-  </si>
-  <si>
-    <t>#_108_Creature_Wolf_Normal</t>
-  </si>
-  <si>
-    <t>#_113_Creature_Cactus_Fire</t>
-  </si>
-  <si>
-    <t>#_102_Creature_Fledgling_Ice</t>
-  </si>
-  <si>
-    <t>#_108_Creature_Wolf_Ice</t>
-  </si>
-  <si>
-    <t>#_109_Creature_Bee_Normal</t>
-  </si>
-  <si>
-    <t>#_110_Creature_Bumble_Thunder</t>
-  </si>
-  <si>
-    <t>#_111_Creature_Angel_Normal</t>
-  </si>
-  <si>
-    <t>#_103_Creature_MushRoom_Ice</t>
+    <t>#_101_#_Enemy_Bunny_Normal</t>
+  </si>
+  <si>
+    <t>#_102_#_Enemy_Fledgling_Normal</t>
+  </si>
+  <si>
+    <t>#_103_#_Enemy_MushRoom_Normal</t>
   </si>
 </sst>
 </file>
@@ -639,7 +615,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,18 +661,6 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
       <c r="F2">
         <v>6</v>
       </c>
@@ -711,28 +675,22 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,13 +698,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,27 +715,33 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,27 +749,33 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,69 +783,72 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/8_Data/2_LevelData.xlsx
+++ b/Assets/8_Data/2_LevelData.xlsx
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>GroundName</t>
   </si>
@@ -615,7 +615,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -731,119 +731,35 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/Assets/8_Data/2_LevelData.xlsx
+++ b/Assets/8_Data/2_LevelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-27060" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Level_1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nhập tên prefab enemy tại
@@ -69,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -78,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nhập tên item tại resources/item folder
@@ -94,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -103,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Có bật hồ hồi máu, không cần xếp hồ vào map
@@ -129,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -138,7 +138,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nhập tên prefab enemy tại
@@ -154,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -163,7 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nhập tên item tại resources/item folder
@@ -179,7 +179,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -188,7 +188,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Có bật hồ hồi máu, không cần xếp hồ vào map
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>GroundName</t>
   </si>
@@ -230,58 +230,55 @@
     <t>ItemConsumable_EggFire</t>
   </si>
   <si>
-    <t>#_7_Ground_Green0</t>
-  </si>
-  <si>
     <t>#_104_Creature_WolfPup_Fire</t>
   </si>
   <si>
     <t>#_105_Creature_Sprout_Normal</t>
   </si>
   <si>
-    <t>#_7_Ground_Green1</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green4</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green6</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green8</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green3</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green2</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green5</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green7</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green9</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green10</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green11</t>
-  </si>
-  <si>
-    <t>#_7_Ground_Green12</t>
-  </si>
-  <si>
     <t>#_101_#_Enemy_Bunny_Normal</t>
   </si>
   <si>
-    <t>#_102_#_Enemy_Fledgling_Normal</t>
-  </si>
-  <si>
-    <t>#_103_#_Enemy_MushRoom_Normal</t>
+    <t>Level_1_Ground_0</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_10</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_11</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_12</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_13</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_19</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_14</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_9</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_15</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_3</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_4</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_5</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_6</t>
+  </si>
+  <si>
+    <t>Level_1_Ground_1</t>
   </si>
 </sst>
 </file>
@@ -300,14 +297,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -326,12 +323,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +646,7 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,9 +672,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -671,105 +692,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
+      <c r="F15">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -822,16 +858,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -848,17 +884,17 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/8_Data/2_LevelData.xlsx
+++ b/Assets/8_Data/2_LevelData.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/8_Data/2_LevelData.xlsx
+++ b/Assets/8_Data/2_LevelData.xlsx
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>GroundName</t>
   </si>
@@ -236,9 +236,6 @@
     <t>#_105_Creature_Sprout_Normal</t>
   </si>
   <si>
-    <t>#_101_#_Enemy_Bunny_Normal</t>
-  </si>
-  <si>
     <t>Level_1_Ground_0</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>Level_1_Ground_1</t>
+  </si>
+  <si>
+    <t>#_103_#_Enemy_MushRoom_Normal</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -694,12 +694,12 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
@@ -708,7 +708,19 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -716,7 +728,19 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -724,7 +748,19 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -732,7 +768,19 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -740,7 +788,19 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -748,7 +808,19 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -756,7 +828,19 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -764,7 +848,19 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -772,7 +868,19 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -780,7 +888,19 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -788,7 +908,19 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -796,7 +928,19 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
         <v>6</v>
